--- a/files/RASPRUB_2020.xlsx
+++ b/files/RASPRUB_2020.xlsx
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>1 - прибыль реинвестируется; 0 - размер ставки постоянный</t>
-  </si>
-  <si>
-    <t>bett(every/first)</t>
   </si>
   <si>
     <t>Размер ставки</t>
@@ -161,16 +158,20 @@
   <si>
     <t>Чистая прибыль (в %)</t>
   </si>
+  <si>
+    <t>lot (first/every)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00000\ _₽_-;\-* #,##0.00000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -309,7 +310,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -350,13 +351,14 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,6 +538,1168 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Сделки!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>equity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Сделки!$J$2:$J$106</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0645871600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1165524910814457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0946242040743996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0871700978469461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0786968136930377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0300284944618794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0352947314457996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0100210232852189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0024458656105797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97015988110322793</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94298691553337788</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0355513787100965</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0502536504758744</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0429033452776539</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0050269521451241</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0573025044361568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0592213816054079</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0952547054276141</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.128382655451742</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2165810382764504</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2316293427764449</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2414958145947861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2932340229068324</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.290611887466667</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2591819646364009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4233391249203156</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4137304898559773</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3690947346878397</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3180457648077439</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2918181566602418</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2869169469011466</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3169956062801356</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3017466146133483</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5124300474770889</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4422612032833002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4117529799371884</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4041301208993089</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5165312987293469</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5759574269275836</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.538025203312487</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5656567027643618</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5035274680306467</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4349510840497044</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5020491814972059</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4573684905402911</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8243538569803417</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7700242524922343</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.854360704252187</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7989422074252583</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7599371467165783</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8026531971825377</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8163777874319469</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.8550497783183799</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9133041291128854</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1091023558951894</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0277147323591387</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.0921136747985836</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.172266901276561</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.2518538077707992</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.2550270300825574</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.4066514169917901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.8693116206925509</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.8280213369841825</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.2052581448976318</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.1854540087132417</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.0693234727900474</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.3506131878088623</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.3176624200666529</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1562173692592674</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.5320547152050441</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.4205539995828667</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.9324424026248623</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.7806001052161813</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.6676648090811299</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.5824107474802971</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.7718409972721632</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.6533864816264709</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5470220798713163</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.5551983559378484</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.4853720560042483</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.5956489838801788</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.8004795149386736</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.6990324411361271</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.7873148440376361</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.0093823077529542</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.8361153678519564</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.732920028341371</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.7672425855171574</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.6952236815958641</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.7146920414668254</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.9473198757578722</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.9361810522200673</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.0342597808198768</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.2484170492937769</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.8198843718454309</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.7888054200238654</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.8174770037226864</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.7680912644910336</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.806123896781334</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.1172575549973551</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.1731590905990528</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.2892085684784611</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.59502246252669</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.568312160991935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B213-4849-B27C-866F093A8FF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1488414543"/>
+        <c:axId val="1488415791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1488414543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1488415791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1488415791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1488414543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,7 +1990,7 @@
   <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,11 +2088,11 @@
       </c>
       <c r="I2" s="10">
         <f>IF(P$1,H2*P2*P$3,H2*P$3)</f>
-        <v>-1.0193320000000001</v>
+        <v>-1.0193320000000001E-2</v>
       </c>
       <c r="J2" s="11">
         <f>P2</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K2" s="12">
         <f>IF(MAX(J$1:J2)=J2,0,1-J2/MAX(J$1:J2))</f>
@@ -937,19 +2101,19 @@
       <c r="L2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="27">
         <f>SUM(I:I)</f>
-        <v>455.81188409919429</v>
-      </c>
-      <c r="N2" s="27"/>
+        <v>4.558118840991936</v>
+      </c>
+      <c r="N2" s="28"/>
       <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="P2" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -979,35 +2143,35 @@
       </c>
       <c r="I3" s="10">
         <f t="shared" ref="I3:I17" si="0">IF(P$1,H3*J2*P$3,H3*P$2*P$3)</f>
-        <v>6.4587160000000008</v>
+        <v>6.4587160000000005E-2</v>
       </c>
       <c r="J3" s="11">
         <f>I3+J2</f>
-        <v>106.458716</v>
+        <v>1.0645871600000001</v>
       </c>
       <c r="K3" s="12">
         <f>IF(MAX(J$1:J3)=J3,0,1-J3/MAX(J$1:J3))</f>
         <v>0</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="14">
         <f>SUMIF(I:I,M1)</f>
-        <v>722.5893580963226</v>
+        <v>7.2258935809632154</v>
       </c>
       <c r="N3" s="14">
         <f>SUMIF(I:I,N1)</f>
-        <v>-266.77747399712825</v>
+        <v>-2.667774739971279</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P3" s="15">
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1037,18 +2201,18 @@
       </c>
       <c r="I4" s="10">
         <f t="shared" si="0"/>
-        <v>5.1965331081445596</v>
+        <v>5.1965331081445604E-2</v>
       </c>
       <c r="J4" s="11">
         <f t="shared" ref="J4:J17" si="1">I4+J3</f>
-        <v>111.65524910814456</v>
+        <v>1.1165524910814457</v>
       </c>
       <c r="K4" s="12">
         <f>IF(MAX(J$1:J4)=J4,0,1-J4/MAX(J$1:J4))</f>
         <v>0</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="16">
         <f>COUNTIF(I:I,M1)</f>
@@ -1059,7 +2223,7 @@
         <v>50</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1089,26 +2253,26 @@
       </c>
       <c r="I5" s="10">
         <f t="shared" si="0"/>
-        <v>-2.192828700704601</v>
+        <v>-2.1928287007046014E-2</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="1"/>
-        <v>109.46242040743996</v>
+        <v>1.0946242040743996</v>
       </c>
       <c r="K5" s="12">
         <f>IF(MAX(J$1:J5)=J5,0,1-J5/MAX(J$1:J5))</f>
-        <v>1.9639279999999926E-2</v>
+        <v>1.9639280000000037E-2</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="14">
         <f>AVERAGEIF(I:I,M1)</f>
-        <v>13.137988329024047</v>
+        <v>0.13137988329024028</v>
       </c>
       <c r="N5" s="14">
         <f>AVERAGEIF(I:I,N1)</f>
-        <v>-5.3355494799425651</v>
+        <v>-5.3355494799425578E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1138,15 +2302,15 @@
       </c>
       <c r="I6" s="10">
         <f t="shared" si="0"/>
-        <v>-0.74541062274536019</v>
+        <v>-7.4541062274536022E-3</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" si="1"/>
-        <v>108.71700978469461</v>
+        <v>1.0871700978469461</v>
       </c>
       <c r="K6" s="12">
         <f>IF(MAX(J$1:J6)=J6,0,1-J6/MAX(J$1:J6))</f>
-        <v>2.6315281609412655E-2</v>
+        <v>2.6315281609412877E-2</v>
       </c>
       <c r="N6" s="18"/>
     </row>
@@ -1177,25 +2341,25 @@
       </c>
       <c r="I7" s="10">
         <f t="shared" si="0"/>
-        <v>-0.84732841539083348</v>
+        <v>-8.4732841539083351E-3</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" si="1"/>
-        <v>107.86968136930378</v>
+        <v>1.0786968136930377</v>
       </c>
       <c r="K7" s="12">
         <f>IF(MAX(J$1:J7)=J7,0,1-J7/MAX(J$1:J7))</f>
-        <v>3.3904073199229945E-2</v>
+        <v>3.3904073199230056E-2</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="19">
         <f>M3/M4</f>
-        <v>13.137988329024047</v>
+        <v>0.13137988329024028</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1225,25 +2389,25 @@
       </c>
       <c r="I8" s="10">
         <f t="shared" si="0"/>
-        <v>-4.8668319231158366</v>
+        <v>-4.8668319231158365E-2</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" si="1"/>
-        <v>103.00284944618794</v>
+        <v>1.0300284944618794</v>
       </c>
       <c r="K8" s="12">
         <f>IF(MAX(J$1:J8)=J8,0,1-J8/MAX(J$1:J8))</f>
-        <v>7.7492099395849001E-2</v>
+        <v>7.7492099395849112E-2</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="19">
         <f>N3/N4</f>
-        <v>-5.3355494799425651</v>
+        <v>-5.3355494799425578E-2</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1273,11 +2437,11 @@
       </c>
       <c r="I9" s="10">
         <f t="shared" si="0"/>
-        <v>0.52662369839201961</v>
+        <v>5.2662369839201958E-3</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" si="1"/>
-        <v>103.52947314457995</v>
+        <v>1.0352947314457996</v>
       </c>
       <c r="K9" s="12">
         <f>IF(MAX(J$1:J9)=J9,0,1-J9/MAX(J$1:J9))</f>
@@ -1291,7 +2455,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1321,25 +2485,25 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" si="0"/>
-        <v>-2.527370816058069</v>
+        <v>-2.5273708160580693E-2</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" si="1"/>
-        <v>101.00210232852189</v>
+        <v>1.0100210232852189</v>
       </c>
       <c r="K10" s="12">
         <f>IF(MAX(J$1:J10)=J10,0,1-J10/MAX(J$1:J10))</f>
-        <v>9.5411069920272928E-2</v>
+        <v>9.5411069920273039E-2</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="19">
+        <v>30</v>
+      </c>
+      <c r="M10" s="29">
         <f>M5/N5*-1</f>
         <v>2.4623496377294343</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1369,25 +2533,25 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" si="0"/>
-        <v>-0.75751576746391414</v>
+        <v>-7.5751576746391413E-3</v>
       </c>
       <c r="J11" s="11">
         <f t="shared" si="1"/>
-        <v>100.24458656105797</v>
+        <v>1.0024458656105797</v>
       </c>
       <c r="K11" s="12">
         <f>IF(MAX(J$1:J11)=J11,0,1-J11/MAX(J$1:J11))</f>
-        <v>0.10219548689587088</v>
+        <v>0.10219548689587099</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="19">
+        <v>32</v>
+      </c>
+      <c r="M11" s="29">
         <f>M4/(M4+N4)</f>
         <v>0.52380952380952384</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1417,25 +2581,25 @@
       </c>
       <c r="I12" s="10">
         <f t="shared" si="0"/>
-        <v>-3.2285984507351717</v>
+        <v>-3.228598450735172E-2</v>
       </c>
       <c r="J12" s="11">
         <f t="shared" si="1"/>
-        <v>97.015988110322795</v>
+        <v>0.97015988110322793</v>
       </c>
       <c r="K12" s="12">
         <f>IF(MAX(J$1:J12)=J12,0,1-J12/MAX(J$1:J12))</f>
-        <v>0.13111126538836337</v>
+        <v>0.13111126538836348</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="19">
+        <v>34</v>
+      </c>
+      <c r="M12" s="29">
         <f>N4/(M4+N4)</f>
         <v>0.47619047619047616</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1465,25 +2629,25 @@
       </c>
       <c r="I13" s="10">
         <f t="shared" si="0"/>
-        <v>-2.7172965569850036</v>
+        <v>-2.7172965569850036E-2</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" si="1"/>
-        <v>94.29869155333779</v>
+        <v>0.94298691553337788</v>
       </c>
       <c r="K13" s="12">
         <f>IF(MAX(J$1:J13)=J13,0,1-J13/MAX(J$1:J13))</f>
-        <v>0.15544775273391709</v>
+        <v>0.1554477527339172</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M13" s="3">
         <f>(M7*M11)+(M8*M12)</f>
-        <v>4.3410655628494705</v>
+        <v>4.3410655628494638E-2</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1513,25 +2677,25 @@
       </c>
       <c r="I14" s="10">
         <f t="shared" si="0"/>
-        <v>9.2564463176718661</v>
+        <v>9.2564463176718667E-2</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" si="1"/>
-        <v>103.55513787100966</v>
+        <v>1.0355513787100965</v>
       </c>
       <c r="K14" s="12">
         <f>IF(MAX(J$1:J14)=J14,0,1-J14/MAX(J$1:J14))</f>
-        <v>7.2545727154210815E-2</v>
+        <v>7.2545727154211037E-2</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M14" s="21">
         <f>1+M9*M10</f>
         <v>3.7085846015023778</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1561,25 +2725,25 @@
       </c>
       <c r="I15" s="10">
         <f t="shared" si="0"/>
-        <v>1.4702271765777959</v>
+        <v>1.4702271765777956E-2</v>
       </c>
       <c r="J15" s="11">
         <f t="shared" si="1"/>
-        <v>105.02536504758746</v>
+        <v>1.0502536504758744</v>
       </c>
       <c r="K15" s="12">
         <f>IF(MAX(J$1:J15)=J15,0,1-J15/MAX(J$1:J15))</f>
-        <v>5.9378167291854522E-2</v>
+        <v>5.9378167291854855E-2</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M15" s="23">
         <f>MAX(K:K)</f>
-        <v>0.15544775273391709</v>
+        <v>0.1554477527339172</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1609,25 +2773,25 @@
       </c>
       <c r="I16" s="10">
         <f t="shared" si="0"/>
-        <v>-0.73503051982204559</v>
+        <v>-7.3503051982204545E-3</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="1"/>
-        <v>104.29033452776541</v>
+        <v>1.0429033452776539</v>
       </c>
       <c r="K16" s="12">
         <f>IF(MAX(J$1:J16)=J16,0,1-J16/MAX(J$1:J16))</f>
-        <v>6.5961203250245792E-2</v>
+        <v>6.5961203250246014E-2</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M16" s="11">
         <f>M17/M15</f>
-        <v>29.322513583031096</v>
+        <v>29.322513583031029</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1657,25 +2821,25 @@
       </c>
       <c r="I17" s="10">
         <f t="shared" si="0"/>
-        <v>-3.78763931325298</v>
+        <v>-3.7876393132529794E-2</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="1"/>
-        <v>100.50269521451243</v>
+        <v>1.0050269521451241</v>
       </c>
       <c r="K17" s="12">
         <f>IF(MAX(J$1:J17)=J17,0,1-J17/MAX(J$1:J17))</f>
-        <v>9.9883829759138676E-2</v>
+        <v>9.9883829759139009E-2</v>
       </c>
       <c r="L17" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="26">
         <f>M2/P2</f>
-        <v>4.5581188409919431</v>
+        <v>4.558118840991936</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1705,15 +2869,15 @@
       </c>
       <c r="I18" s="10">
         <f t="shared" ref="I18:I81" si="2">IF(P$1,H18*J17*P$3,H18*P$2*P$3)</f>
-        <v>5.2275552291032668</v>
+        <v>5.2275552291032652E-2</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" ref="J18:J81" si="3">I18+J17</f>
-        <v>105.73025044361569</v>
+        <v>1.0573025044361568</v>
       </c>
       <c r="K18" s="12">
         <f>IF(MAX(J$1:J18)=J18,0,1-J18/MAX(J$1:J18))</f>
-        <v>5.3065115270936936E-2</v>
+        <v>5.3065115270937158E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1743,15 +2907,15 @@
       </c>
       <c r="I19" s="10">
         <f t="shared" si="2"/>
-        <v>0.19188771692510925</v>
+        <v>1.9188771692510923E-3</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="3"/>
-        <v>105.9221381605408</v>
+        <v>1.0592213816054079</v>
       </c>
       <c r="K19" s="12">
         <f>IF(MAX(J$1:J19)=J19,0,1-J19/MAX(J$1:J19))</f>
-        <v>5.1346542087339908E-2</v>
+        <v>5.1346542087340019E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1781,15 +2945,15 @@
       </c>
       <c r="I20" s="10">
         <f t="shared" si="2"/>
-        <v>3.6033323822206071</v>
+        <v>3.6033323822206073E-2</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="3"/>
-        <v>109.52547054276141</v>
+        <v>1.0952547054276141</v>
       </c>
       <c r="K20" s="12">
         <f>IF(MAX(J$1:J20)=J20,0,1-J20/MAX(J$1:J20))</f>
-        <v>1.9074594185180982E-2</v>
+        <v>1.9074594185181093E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1819,11 +2983,11 @@
       </c>
       <c r="I21" s="10">
         <f t="shared" si="2"/>
-        <v>3.3127950024127961</v>
+        <v>3.312795002412796E-2</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="3"/>
-        <v>112.83826554517421</v>
+        <v>1.128382655451742</v>
       </c>
       <c r="K21" s="12">
         <f>IF(MAX(J$1:J21)=J21,0,1-J21/MAX(J$1:J21))</f>
@@ -1857,11 +3021,11 @@
       </c>
       <c r="I22" s="10">
         <f t="shared" si="2"/>
-        <v>8.8198382824708457</v>
+        <v>8.819838282470846E-2</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="3"/>
-        <v>121.65810382764505</v>
+        <v>1.2165810382764504</v>
       </c>
       <c r="K22" s="12">
         <f>IF(MAX(J$1:J22)=J22,0,1-J22/MAX(J$1:J22))</f>
@@ -1895,11 +3059,11 @@
       </c>
       <c r="I23" s="10">
         <f t="shared" si="2"/>
-        <v>1.5048304499994429</v>
+        <v>1.5048304499994428E-2</v>
       </c>
       <c r="J23" s="11">
         <f t="shared" si="3"/>
-        <v>123.1629342776445</v>
+        <v>1.2316293427764449</v>
       </c>
       <c r="K23" s="12">
         <f>IF(MAX(J$1:J23)=J23,0,1-J23/MAX(J$1:J23))</f>
@@ -1933,11 +3097,11 @@
       </c>
       <c r="I24" s="10">
         <f t="shared" si="2"/>
-        <v>0.98664718183412503</v>
+        <v>9.8664718183412489E-3</v>
       </c>
       <c r="J24" s="11">
         <f t="shared" si="3"/>
-        <v>124.14958145947863</v>
+        <v>1.2414958145947861</v>
       </c>
       <c r="K24" s="12">
         <f>IF(MAX(J$1:J24)=J24,0,1-J24/MAX(J$1:J24))</f>
@@ -1971,11 +3135,11 @@
       </c>
       <c r="I25" s="10">
         <f t="shared" si="2"/>
-        <v>5.173820831204643</v>
+        <v>5.1738208312046424E-2</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="3"/>
-        <v>129.32340229068328</v>
+        <v>1.2932340229068324</v>
       </c>
       <c r="K25" s="12">
         <f>IF(MAX(J$1:J25)=J25,0,1-J25/MAX(J$1:J25))</f>
@@ -2009,15 +3173,15 @@
       </c>
       <c r="I26" s="10">
         <f t="shared" si="2"/>
-        <v>-0.26221354401654362</v>
+        <v>-2.6221354401654356E-3</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="3"/>
-        <v>129.06118874666674</v>
+        <v>1.290611887466667</v>
       </c>
       <c r="K26" s="12">
         <f>IF(MAX(J$1:J26)=J26,0,1-J26/MAX(J$1:J26))</f>
-        <v>2.0275799999999178E-3</v>
+        <v>2.0275800000000288E-3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2047,15 +3211,15 @@
       </c>
       <c r="I27" s="10">
         <f t="shared" si="2"/>
-        <v>-3.1429922830266137</v>
+        <v>-3.1429922830266126E-2</v>
       </c>
       <c r="J27" s="11">
         <f t="shared" si="3"/>
-        <v>125.91819646364013</v>
+        <v>1.2591819646364009</v>
       </c>
       <c r="K27" s="12">
         <f>IF(MAX(J$1:J27)=J27,0,1-J27/MAX(J$1:J27))</f>
-        <v>2.6330932891706516E-2</v>
+        <v>2.6330932891706627E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2085,11 +3249,11 @@
       </c>
       <c r="I28" s="10">
         <f t="shared" si="2"/>
-        <v>16.415716028391483</v>
+        <v>0.16415716028391475</v>
       </c>
       <c r="J28" s="11">
         <f t="shared" si="3"/>
-        <v>142.3339124920316</v>
+        <v>1.4233391249203156</v>
       </c>
       <c r="K28" s="12">
         <f>IF(MAX(J$1:J28)=J28,0,1-J28/MAX(J$1:J28))</f>
@@ -2123,11 +3287,11 @@
       </c>
       <c r="I29" s="10">
         <f t="shared" si="2"/>
-        <v>-0.96086350643383212</v>
+        <v>-9.6086350643383184E-3</v>
       </c>
       <c r="J29" s="11">
         <f t="shared" si="3"/>
-        <v>141.37304898559776</v>
+        <v>1.4137304898559773</v>
       </c>
       <c r="K29" s="12">
         <f>IF(MAX(J$1:J29)=J29,0,1-J29/MAX(J$1:J29))</f>
@@ -2161,15 +3325,15 @@
       </c>
       <c r="I30" s="10">
         <f t="shared" si="2"/>
-        <v>-4.4635755168137479</v>
+        <v>-4.4635755168137468E-2</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="3"/>
-        <v>136.90947346878403</v>
+        <v>1.3690947346878397</v>
       </c>
       <c r="K30" s="12">
         <f>IF(MAX(J$1:J30)=J30,0,1-J30/MAX(J$1:J30))</f>
-        <v>3.8110657736266873E-2</v>
+        <v>3.8110657736266984E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2199,15 +3363,15 @@
       </c>
       <c r="I31" s="10">
         <f t="shared" si="2"/>
-        <v>-5.1048969880095703</v>
+        <v>-5.1048969880095683E-2</v>
       </c>
       <c r="J31" s="11">
         <f t="shared" si="3"/>
-        <v>131.80457648077447</v>
+        <v>1.3180457648077439</v>
       </c>
       <c r="K31" s="12">
         <f>IF(MAX(J$1:J31)=J31,0,1-J31/MAX(J$1:J31))</f>
-        <v>7.3976298598878221E-2</v>
+        <v>7.3976298598878443E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2237,15 +3401,15 @@
       </c>
       <c r="I32" s="10">
         <f t="shared" si="2"/>
-        <v>-2.6227608147502242</v>
+        <v>-2.6227608147502225E-2</v>
       </c>
       <c r="J32" s="11">
         <f t="shared" si="3"/>
-        <v>129.18181566602425</v>
+        <v>1.2918181566602418</v>
       </c>
       <c r="K32" s="12">
         <f>IF(MAX(J$1:J32)=J32,0,1-J32/MAX(J$1:J32))</f>
-        <v>9.2403114589740931E-2</v>
+        <v>9.2403114589741153E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2275,15 +3439,15 @@
       </c>
       <c r="I33" s="10">
         <f t="shared" si="2"/>
-        <v>-0.49012097590952264</v>
+        <v>-4.9012097590952234E-3</v>
       </c>
       <c r="J33" s="11">
         <f t="shared" si="3"/>
-        <v>128.69169469011473</v>
+        <v>1.2869169469011466</v>
       </c>
       <c r="K33" s="12">
         <f>IF(MAX(J$1:J33)=J33,0,1-J33/MAX(J$1:J33))</f>
-        <v>9.5846573476862873E-2</v>
+        <v>9.5846573476863095E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2313,15 +3477,15 @@
       </c>
       <c r="I34" s="10">
         <f t="shared" si="2"/>
-        <v>3.0078659378989099</v>
+        <v>3.007865937898908E-2</v>
       </c>
       <c r="J34" s="11">
         <f t="shared" si="3"/>
-        <v>131.69956062801364</v>
+        <v>1.3169956062801356</v>
       </c>
       <c r="K34" s="12">
         <f>IF(MAX(J$1:J34)=J34,0,1-J34/MAX(J$1:J34))</f>
-        <v>7.4714111892436819E-2</v>
+        <v>7.4714111892437152E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2351,15 +3515,15 @@
       </c>
       <c r="I35" s="10">
         <f t="shared" si="2"/>
-        <v>-1.5248991666787313</v>
+        <v>-1.5248991666787302E-2</v>
       </c>
       <c r="J35" s="11">
         <f t="shared" si="3"/>
-        <v>130.17466146133492</v>
+        <v>1.3017466146133483</v>
       </c>
       <c r="K35" s="12">
         <f>IF(MAX(J$1:J35)=J35,0,1-J35/MAX(J$1:J35))</f>
-        <v>8.5427645582196732E-2</v>
+        <v>8.5427645582197065E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2389,11 +3553,11 @@
       </c>
       <c r="I36" s="10">
         <f t="shared" si="2"/>
-        <v>21.068343286374077</v>
+        <v>0.21068343286374064</v>
       </c>
       <c r="J36" s="11">
         <f t="shared" si="3"/>
-        <v>151.24300474770899</v>
+        <v>1.5124300474770889</v>
       </c>
       <c r="K36" s="12">
         <f>IF(MAX(J$1:J36)=J36,0,1-J36/MAX(J$1:J36))</f>
@@ -2427,11 +3591,11 @@
       </c>
       <c r="I37" s="10">
         <f t="shared" si="2"/>
-        <v>-7.0168844193788669</v>
+        <v>-7.0168844193788618E-2</v>
       </c>
       <c r="J37" s="11">
         <f t="shared" si="3"/>
-        <v>144.22612032833013</v>
+        <v>1.4422612032833002</v>
       </c>
       <c r="K37" s="12">
         <f>IF(MAX(J$1:J37)=J37,0,1-J37/MAX(J$1:J37))</f>
@@ -2465,11 +3629,11 @@
       </c>
       <c r="I38" s="10">
         <f t="shared" si="2"/>
-        <v>-3.0508223346111834</v>
+        <v>-3.0508223346111814E-2</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" si="3"/>
-        <v>141.17529799371894</v>
+        <v>1.4117529799371884</v>
       </c>
       <c r="K38" s="12">
         <f>IF(MAX(J$1:J38)=J38,0,1-J38/MAX(J$1:J38))</f>
@@ -2503,11 +3667,11 @@
       </c>
       <c r="I39" s="10">
         <f t="shared" si="2"/>
-        <v>-0.76228590378794503</v>
+        <v>-7.6228590378794444E-3</v>
       </c>
       <c r="J39" s="11">
         <f t="shared" si="3"/>
-        <v>140.41301208993099</v>
+        <v>1.4041301208993089</v>
       </c>
       <c r="K39" s="12">
         <f>IF(MAX(J$1:J39)=J39,0,1-J39/MAX(J$1:J39))</f>
@@ -2541,11 +3705,11 @@
       </c>
       <c r="I40" s="10">
         <f t="shared" si="2"/>
-        <v>11.240117783003811</v>
+        <v>0.11240117783003803</v>
       </c>
       <c r="J40" s="11">
         <f t="shared" si="3"/>
-        <v>151.65312987293481</v>
+        <v>1.5165312987293469</v>
       </c>
       <c r="K40" s="12">
         <f>IF(MAX(J$1:J40)=J40,0,1-J40/MAX(J$1:J40))</f>
@@ -2579,11 +3743,11 @@
       </c>
       <c r="I41" s="10">
         <f t="shared" si="2"/>
-        <v>5.9426128198236796</v>
+        <v>5.9426128198236748E-2</v>
       </c>
       <c r="J41" s="11">
         <f t="shared" si="3"/>
-        <v>157.59574269275851</v>
+        <v>1.5759574269275836</v>
       </c>
       <c r="K41" s="12">
         <f>IF(MAX(J$1:J41)=J41,0,1-J41/MAX(J$1:J41))</f>
@@ -2617,11 +3781,11 @@
       </c>
       <c r="I42" s="10">
         <f t="shared" si="2"/>
-        <v>-3.7932223615096663</v>
+        <v>-3.7932223615096627E-2</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" si="3"/>
-        <v>153.80252033124884</v>
+        <v>1.538025203312487</v>
       </c>
       <c r="K42" s="12">
         <f>IF(MAX(J$1:J42)=J42,0,1-J42/MAX(J$1:J42))</f>
@@ -2655,11 +3819,11 @@
       </c>
       <c r="I43" s="10">
         <f t="shared" si="2"/>
-        <v>2.7631499451874744</v>
+        <v>2.7631499451874719E-2</v>
       </c>
       <c r="J43" s="11">
         <f t="shared" si="3"/>
-        <v>156.56567027643632</v>
+        <v>1.5656567027643618</v>
       </c>
       <c r="K43" s="12">
         <f>IF(MAX(J$1:J43)=J43,0,1-J43/MAX(J$1:J43))</f>
@@ -2693,15 +3857,15 @@
       </c>
       <c r="I44" s="10">
         <f t="shared" si="2"/>
-        <v>-6.2129234733714958</v>
+        <v>-6.21292347337149E-2</v>
       </c>
       <c r="J44" s="11">
         <f t="shared" si="3"/>
-        <v>150.35274680306483</v>
+        <v>1.5035274680306467</v>
       </c>
       <c r="K44" s="12">
         <f>IF(MAX(J$1:J44)=J44,0,1-J44/MAX(J$1:J44))</f>
-        <v>4.5959337263407507E-2</v>
+        <v>4.5959337263407618E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2731,15 +3895,15 @@
       </c>
       <c r="I45" s="10">
         <f t="shared" si="2"/>
-        <v>-6.8576383980942319</v>
+        <v>-6.8576383980942249E-2</v>
       </c>
       <c r="J45" s="11">
         <f t="shared" si="3"/>
-        <v>143.49510840497061</v>
+        <v>1.4349510840497044</v>
       </c>
       <c r="K45" s="12">
         <f>IF(MAX(J$1:J45)=J45,0,1-J45/MAX(J$1:J45))</f>
-        <v>8.9473446724242067E-2</v>
+        <v>8.9473446724242289E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2769,15 +3933,15 @@
       </c>
       <c r="I46" s="10">
         <f t="shared" si="2"/>
-        <v>6.7098097447501646</v>
+        <v>6.7098097447501573E-2</v>
       </c>
       <c r="J46" s="11">
         <f t="shared" si="3"/>
-        <v>150.20491814972078</v>
+        <v>1.5020491814972059</v>
       </c>
       <c r="K46" s="12">
         <f>IF(MAX(J$1:J46)=J46,0,1-J46/MAX(J$1:J46))</f>
-        <v>4.6897361672050608E-2</v>
+        <v>4.6897361672050941E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2807,15 +3971,15 @@
       </c>
       <c r="I47" s="10">
         <f t="shared" si="2"/>
-        <v>-4.4680690956914875</v>
+        <v>-4.468069095691482E-2</v>
       </c>
       <c r="J47" s="11">
         <f t="shared" si="3"/>
-        <v>145.73684905402931</v>
+        <v>1.4573684905402911</v>
       </c>
       <c r="K47" s="12">
         <f>IF(MAX(J$1:J47)=J47,0,1-J47/MAX(J$1:J47))</f>
-        <v>7.5248819772046449E-2</v>
+        <v>7.5248819772046893E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2845,11 +4009,11 @@
       </c>
       <c r="I48" s="10">
         <f t="shared" si="2"/>
-        <v>36.698536644005117</v>
+        <v>0.36698536644005064</v>
       </c>
       <c r="J48" s="11">
         <f t="shared" si="3"/>
-        <v>182.43538569803442</v>
+        <v>1.8243538569803417</v>
       </c>
       <c r="K48" s="12">
         <f>IF(MAX(J$1:J48)=J48,0,1-J48/MAX(J$1:J48))</f>
@@ -2883,11 +4047,11 @@
       </c>
       <c r="I49" s="10">
         <f t="shared" si="2"/>
-        <v>-5.4329604488107481</v>
+        <v>-5.4329604488107405E-2</v>
       </c>
       <c r="J49" s="11">
         <f t="shared" si="3"/>
-        <v>177.00242524922368</v>
+        <v>1.7700242524922343</v>
       </c>
       <c r="K49" s="12">
         <f>IF(MAX(J$1:J49)=J49,0,1-J49/MAX(J$1:J49))</f>
@@ -2921,11 +4085,11 @@
       </c>
       <c r="I50" s="10">
         <f t="shared" si="2"/>
-        <v>8.4336451759952755</v>
+        <v>8.4336451759952635E-2</v>
       </c>
       <c r="J50" s="11">
         <f t="shared" si="3"/>
-        <v>185.43607042521896</v>
+        <v>1.854360704252187</v>
       </c>
       <c r="K50" s="12">
         <f>IF(MAX(J$1:J50)=J50,0,1-J50/MAX(J$1:J50))</f>
@@ -2959,11 +4123,11 @@
       </c>
       <c r="I51" s="10">
         <f t="shared" si="2"/>
-        <v>-5.5418496826928809</v>
+        <v>-5.5418496826928731E-2</v>
       </c>
       <c r="J51" s="11">
         <f t="shared" si="3"/>
-        <v>179.89422074252607</v>
+        <v>1.7989422074252583</v>
       </c>
       <c r="K51" s="12">
         <f>IF(MAX(J$1:J51)=J51,0,1-J51/MAX(J$1:J51))</f>
@@ -2997,11 +4161,11 @@
       </c>
       <c r="I52" s="10">
         <f t="shared" si="2"/>
-        <v>-3.9005060708680133</v>
+        <v>-3.9005060708680081E-2</v>
       </c>
       <c r="J52" s="11">
         <f t="shared" si="3"/>
-        <v>175.99371467165807</v>
+        <v>1.7599371467165783</v>
       </c>
       <c r="K52" s="12">
         <f>IF(MAX(J$1:J52)=J52,0,1-J52/MAX(J$1:J52))</f>
@@ -3035,15 +4199,15 @@
       </c>
       <c r="I53" s="10">
         <f t="shared" si="2"/>
-        <v>4.2716050465959485</v>
+        <v>4.2716050465959422E-2</v>
       </c>
       <c r="J53" s="11">
         <f t="shared" si="3"/>
-        <v>180.26531971825401</v>
+        <v>1.8026531971825377</v>
       </c>
       <c r="K53" s="12">
         <f>IF(MAX(J$1:J53)=J53,0,1-J53/MAX(J$1:J53))</f>
-        <v>2.788427674889804E-2</v>
+        <v>2.7884276748897929E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3073,15 +4237,15 @@
       </c>
       <c r="I54" s="10">
         <f t="shared" si="2"/>
-        <v>1.3724590249409128</v>
+        <v>1.372459024940911E-2</v>
       </c>
       <c r="J54" s="11">
         <f t="shared" si="3"/>
-        <v>181.63777874319493</v>
+        <v>1.8163777874319469</v>
       </c>
       <c r="K54" s="12">
         <f>IF(MAX(J$1:J54)=J54,0,1-J54/MAX(J$1:J54))</f>
-        <v>2.0483025084139572E-2</v>
+        <v>2.0483025084139461E-2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3111,11 +4275,11 @@
       </c>
       <c r="I55" s="10">
         <f t="shared" si="2"/>
-        <v>3.8671990886433152</v>
+        <v>3.8671990886433097E-2</v>
       </c>
       <c r="J55" s="11">
         <f t="shared" si="3"/>
-        <v>185.50497783183823</v>
+        <v>1.8550497783183799</v>
       </c>
       <c r="K55" s="12">
         <f>IF(MAX(J$1:J55)=J55,0,1-J55/MAX(J$1:J55))</f>
@@ -3149,11 +4313,11 @@
       </c>
       <c r="I56" s="10">
         <f t="shared" si="2"/>
-        <v>5.8254350794505561</v>
+        <v>5.8254350794505479E-2</v>
       </c>
       <c r="J56" s="11">
         <f t="shared" si="3"/>
-        <v>191.33041291128879</v>
+        <v>1.9133041291128854</v>
       </c>
       <c r="K56" s="12">
         <f>IF(MAX(J$1:J56)=J56,0,1-J56/MAX(J$1:J56))</f>
@@ -3187,11 +4351,11 @@
       </c>
       <c r="I57" s="10">
         <f t="shared" si="2"/>
-        <v>19.579822678230418</v>
+        <v>0.19579822678230391</v>
       </c>
       <c r="J57" s="11">
         <f t="shared" si="3"/>
-        <v>210.9102355895192</v>
+        <v>2.1091023558951894</v>
       </c>
       <c r="K57" s="12">
         <f>IF(MAX(J$1:J57)=J57,0,1-J57/MAX(J$1:J57))</f>
@@ -3225,15 +4389,15 @@
       </c>
       <c r="I58" s="10">
         <f t="shared" si="2"/>
-        <v>-8.138762353605058</v>
+        <v>-8.1387623536050488E-2</v>
       </c>
       <c r="J58" s="11">
         <f t="shared" si="3"/>
-        <v>202.77147323591416</v>
+        <v>2.0277147323591387</v>
       </c>
       <c r="K58" s="12">
         <f>IF(MAX(J$1:J58)=J58,0,1-J58/MAX(J$1:J58))</f>
-        <v>3.8588749999999949E-2</v>
+        <v>3.8588750000000061E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3263,15 +4427,15 @@
       </c>
       <c r="I59" s="10">
         <f t="shared" si="2"/>
-        <v>6.4398942439444955</v>
+        <v>6.4398942439444856E-2</v>
       </c>
       <c r="J59" s="11">
         <f t="shared" si="3"/>
-        <v>209.21136747985867</v>
+        <v>2.0921136747985836</v>
       </c>
       <c r="K59" s="12">
         <f>IF(MAX(J$1:J59)=J59,0,1-J59/MAX(J$1:J59))</f>
-        <v>8.0549343890873315E-3</v>
+        <v>8.0549343890875535E-3</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3301,11 +4465,11 @@
       </c>
       <c r="I60" s="10">
         <f t="shared" si="2"/>
-        <v>8.0153226477977437</v>
+        <v>8.0153226477977318E-2</v>
       </c>
       <c r="J60" s="11">
         <f t="shared" si="3"/>
-        <v>217.22669012765641</v>
+        <v>2.172266901276561</v>
       </c>
       <c r="K60" s="12">
         <f>IF(MAX(J$1:J60)=J60,0,1-J60/MAX(J$1:J60))</f>
@@ -3339,11 +4503,11 @@
       </c>
       <c r="I61" s="10">
         <f t="shared" si="2"/>
-        <v>7.9586906494238399</v>
+        <v>7.9586906494238274E-2</v>
       </c>
       <c r="J61" s="11">
         <f t="shared" si="3"/>
-        <v>225.18538077708024</v>
+        <v>2.2518538077707992</v>
       </c>
       <c r="K61" s="12">
         <f>IF(MAX(J$1:J61)=J61,0,1-J61/MAX(J$1:J61))</f>
@@ -3377,11 +4541,11 @@
       </c>
       <c r="I62" s="10">
         <f t="shared" si="2"/>
-        <v>0.31732223117583042</v>
+        <v>3.1732223117582996E-3</v>
       </c>
       <c r="J62" s="11">
         <f t="shared" si="3"/>
-        <v>225.50270300825608</v>
+        <v>2.2550270300825574</v>
       </c>
       <c r="K62" s="12">
         <f>IF(MAX(J$1:J62)=J62,0,1-J62/MAX(J$1:J62))</f>
@@ -3415,11 +4579,11 @@
       </c>
       <c r="I63" s="10">
         <f t="shared" si="2"/>
-        <v>15.162438690923294</v>
+        <v>0.15162438690923272</v>
       </c>
       <c r="J63" s="11">
         <f t="shared" si="3"/>
-        <v>240.66514169917937</v>
+        <v>2.4066514169917901</v>
       </c>
       <c r="K63" s="12">
         <f>IF(MAX(J$1:J63)=J63,0,1-J63/MAX(J$1:J63))</f>
@@ -3453,11 +4617,11 @@
       </c>
       <c r="I64" s="10">
         <f t="shared" si="2"/>
-        <v>46.266020370076149</v>
+        <v>0.46266020370076083</v>
       </c>
       <c r="J64" s="11">
         <f t="shared" si="3"/>
-        <v>286.93116206925549</v>
+        <v>2.8693116206925509</v>
       </c>
       <c r="K64" s="12">
         <f>IF(MAX(J$1:J64)=J64,0,1-J64/MAX(J$1:J64))</f>
@@ -3491,15 +4655,15 @@
       </c>
       <c r="I65" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1290283708368278</v>
+        <v>-4.1290283708368222E-2</v>
       </c>
       <c r="J65" s="11">
         <f t="shared" si="3"/>
-        <v>282.80213369841869</v>
+        <v>2.8280213369841825</v>
       </c>
       <c r="K65" s="12">
         <f>IF(MAX(J$1:J65)=J65,0,1-J65/MAX(J$1:J65))</f>
-        <v>1.4390309999999906E-2</v>
+        <v>1.4390310000000017E-2</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3529,11 +4693,11 @@
       </c>
       <c r="I66" s="10">
         <f t="shared" si="2"/>
-        <v>37.723680791344975</v>
+        <v>0.37723680791344921</v>
       </c>
       <c r="J66" s="11">
         <f t="shared" si="3"/>
-        <v>320.52581448976366</v>
+        <v>3.2052581448976318</v>
       </c>
       <c r="K66" s="12">
         <f>IF(MAX(J$1:J66)=J66,0,1-J66/MAX(J$1:J66))</f>
@@ -3567,15 +4731,15 @@
       </c>
       <c r="I67" s="10">
         <f t="shared" si="2"/>
-        <v>-1.9804136184390333</v>
+        <v>-1.9804136184390305E-2</v>
       </c>
       <c r="J67" s="11">
         <f t="shared" si="3"/>
-        <v>318.5454008713246</v>
+        <v>3.1854540087132417</v>
       </c>
       <c r="K67" s="12">
         <f>IF(MAX(J$1:J67)=J67,0,1-J67/MAX(J$1:J67))</f>
-        <v>6.178640000000124E-3</v>
+        <v>6.178639999999902E-3</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3605,15 +4769,15 @@
       </c>
       <c r="I68" s="10">
         <f t="shared" si="2"/>
-        <v>-11.613053592319453</v>
+        <v>-0.11613053592319438</v>
       </c>
       <c r="J68" s="11">
         <f t="shared" si="3"/>
-        <v>306.93234727900517</v>
+        <v>3.0693234727900474</v>
       </c>
       <c r="K68" s="12">
         <f>IF(MAX(J$1:J68)=J68,0,1-J68/MAX(J$1:J68))</f>
-        <v>4.2409898349053621E-2</v>
+        <v>4.240989834905351E-2</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3643,11 +4807,11 @@
       </c>
       <c r="I69" s="10">
         <f t="shared" si="2"/>
-        <v>28.128971501881541</v>
+        <v>0.281289715018815</v>
       </c>
       <c r="J69" s="11">
         <f t="shared" si="3"/>
-        <v>335.06131878088672</v>
+        <v>3.3506131878088623</v>
       </c>
       <c r="K69" s="12">
         <f>IF(MAX(J$1:J69)=J69,0,1-J69/MAX(J$1:J69))</f>
@@ -3681,11 +4845,11 @@
       </c>
       <c r="I70" s="10">
         <f t="shared" si="2"/>
-        <v>-3.2950767742209348</v>
+        <v>-3.29507677422093E-2</v>
       </c>
       <c r="J70" s="11">
         <f t="shared" si="3"/>
-        <v>331.76624200666578</v>
+        <v>3.3176624200666529</v>
       </c>
       <c r="K70" s="12">
         <f>IF(MAX(J$1:J70)=J70,0,1-J70/MAX(J$1:J70))</f>
@@ -3719,15 +4883,15 @@
       </c>
       <c r="I71" s="10">
         <f t="shared" si="2"/>
-        <v>-16.144505080738551</v>
+        <v>-0.16144505080738528</v>
       </c>
       <c r="J71" s="11">
         <f t="shared" si="3"/>
-        <v>315.62173692592722</v>
+        <v>3.1562173692592674</v>
       </c>
       <c r="K71" s="12">
         <f>IF(MAX(J$1:J71)=J71,0,1-J71/MAX(J$1:J71))</f>
-        <v>5.8017982874567497E-2</v>
+        <v>5.8017982874567608E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3757,11 +4921,11 @@
       </c>
       <c r="I72" s="10">
         <f t="shared" si="2"/>
-        <v>37.583734594577699</v>
+        <v>0.37583734594577645</v>
       </c>
       <c r="J72" s="11">
         <f t="shared" si="3"/>
-        <v>353.20547152050494</v>
+        <v>3.5320547152050441</v>
       </c>
       <c r="K72" s="12">
         <f>IF(MAX(J$1:J72)=J72,0,1-J72/MAX(J$1:J72))</f>
@@ -3795,11 +4959,11 @@
       </c>
       <c r="I73" s="10">
         <f t="shared" si="2"/>
-        <v>-11.15007156221775</v>
+        <v>-0.11150071562217734</v>
       </c>
       <c r="J73" s="11">
         <f t="shared" si="3"/>
-        <v>342.05539995828718</v>
+        <v>3.4205539995828667</v>
       </c>
       <c r="K73" s="12">
         <f>IF(MAX(J$1:J73)=J73,0,1-J73/MAX(J$1:J73))</f>
@@ -3833,11 +4997,11 @@
       </c>
       <c r="I74" s="10">
         <f t="shared" si="2"/>
-        <v>51.188840304199651</v>
+        <v>0.51188840304199568</v>
       </c>
       <c r="J74" s="11">
         <f t="shared" si="3"/>
-        <v>393.24424026248681</v>
+        <v>3.9324424026248623</v>
       </c>
       <c r="K74" s="12">
         <f>IF(MAX(J$1:J74)=J74,0,1-J74/MAX(J$1:J74))</f>
@@ -3871,11 +5035,11 @@
       </c>
       <c r="I75" s="10">
         <f t="shared" si="2"/>
-        <v>-15.184229740868131</v>
+        <v>-0.15184229740868108</v>
       </c>
       <c r="J75" s="11">
         <f t="shared" si="3"/>
-        <v>378.06001052161866</v>
+        <v>3.7806001052161813</v>
       </c>
       <c r="K75" s="12">
         <f>IF(MAX(J$1:J75)=J75,0,1-J75/MAX(J$1:J75))</f>
@@ -3909,15 +5073,15 @@
       </c>
       <c r="I76" s="10">
         <f t="shared" si="2"/>
-        <v>-11.293529613505161</v>
+        <v>-0.11293529613505143</v>
       </c>
       <c r="J76" s="11">
         <f t="shared" si="3"/>
-        <v>366.76648090811352</v>
+        <v>3.6676648090811299</v>
       </c>
       <c r="K76" s="12">
         <f>IF(MAX(J$1:J76)=J76,0,1-J76/MAX(J$1:J76))</f>
-        <v>6.7331588472089643E-2</v>
+        <v>6.7331588472089532E-2</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3947,15 +5111,15 @@
       </c>
       <c r="I77" s="10">
         <f t="shared" si="2"/>
-        <v>-8.5254061600832998</v>
+        <v>-8.5254061600832862E-2</v>
       </c>
       <c r="J77" s="11">
         <f t="shared" si="3"/>
-        <v>358.2410747480302</v>
+        <v>3.5824107474802971</v>
       </c>
       <c r="K77" s="12">
         <f>IF(MAX(J$1:J77)=J77,0,1-J77/MAX(J$1:J77))</f>
-        <v>8.9011260511005386E-2</v>
+        <v>8.9011260511005275E-2</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3985,15 +5149,15 @@
       </c>
       <c r="I78" s="10">
         <f t="shared" si="2"/>
-        <v>18.943024979186625</v>
+        <v>0.18943024979186598</v>
       </c>
       <c r="J78" s="11">
         <f t="shared" si="3"/>
-        <v>377.18409972721685</v>
+        <v>3.7718409972721632</v>
       </c>
       <c r="K78" s="12">
         <f>IF(MAX(J$1:J78)=J78,0,1-J78/MAX(J$1:J78))</f>
-        <v>4.0840116372842461E-2</v>
+        <v>4.084011637284235E-2</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4023,15 +5187,15 @@
       </c>
       <c r="I79" s="10">
         <f t="shared" si="2"/>
-        <v>-11.845451564569258</v>
+        <v>-0.1184545156456924</v>
       </c>
       <c r="J79" s="11">
         <f t="shared" si="3"/>
-        <v>365.33864816264759</v>
+        <v>3.6533864816264709</v>
       </c>
       <c r="K79" s="12">
         <f>IF(MAX(J$1:J79)=J79,0,1-J79/MAX(J$1:J79))</f>
-        <v>7.0962494151757927E-2</v>
+        <v>7.0962494151757816E-2</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4061,15 +5225,15 @@
       </c>
       <c r="I80" s="10">
         <f t="shared" si="2"/>
-        <v>-10.636440175515469</v>
+        <v>-0.10636440175515455</v>
       </c>
       <c r="J80" s="11">
         <f t="shared" si="3"/>
-        <v>354.70220798713211</v>
+        <v>3.5470220798713163</v>
       </c>
       <c r="K80" s="12">
         <f>IF(MAX(J$1:J80)=J80,0,1-J80/MAX(J$1:J80))</f>
-        <v>9.8010417774023195E-2</v>
+        <v>9.8010417774023084E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4099,15 +5263,15 @@
       </c>
       <c r="I81" s="10">
         <f t="shared" si="2"/>
-        <v>0.8176276066532181</v>
+        <v>8.1762760665321701E-3</v>
       </c>
       <c r="J81" s="11">
         <f t="shared" si="3"/>
-        <v>355.51983559378533</v>
+        <v>3.5551983559378484</v>
       </c>
       <c r="K81" s="12">
         <f>IF(MAX(J$1:J81)=J81,0,1-J81/MAX(J$1:J81))</f>
-        <v>9.5931232568138292E-2</v>
+        <v>9.5931232568138181E-2</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4137,15 +5301,15 @@
       </c>
       <c r="I82" s="10">
         <f t="shared" ref="I82:I106" si="4">IF(P$1,H82*J81*P$3,H82*P$2*P$3)</f>
-        <v>-6.9826299933600122</v>
+        <v>-6.9826299933600025E-2</v>
       </c>
       <c r="J82" s="11">
         <f t="shared" ref="J82:J106" si="5">I82+J81</f>
-        <v>348.5372056004253</v>
+        <v>3.4853720560042483</v>
       </c>
       <c r="K82" s="12">
         <f>IF(MAX(J$1:J82)=J82,0,1-J82/MAX(J$1:J82))</f>
-        <v>0.11368770368313597</v>
+        <v>0.11368770368313585</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4175,15 +5339,15 @@
       </c>
       <c r="I83" s="10">
         <f t="shared" si="4"/>
-        <v>11.027692787593063</v>
+        <v>0.11027692787593048</v>
       </c>
       <c r="J83" s="11">
         <f t="shared" si="5"/>
-        <v>359.56489838801838</v>
+        <v>3.5956489838801788</v>
       </c>
       <c r="K83" s="12">
         <f>IF(MAX(J$1:J83)=J83,0,1-J83/MAX(J$1:J83))</f>
-        <v>8.5644844669531039E-2</v>
+        <v>8.5644844669530928E-2</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4213,15 +5377,15 @@
       </c>
       <c r="I84" s="10">
         <f t="shared" si="4"/>
-        <v>20.4830531058495</v>
+        <v>0.20483053105849472</v>
       </c>
       <c r="J84" s="11">
         <f t="shared" si="5"/>
-        <v>380.04795149386786</v>
+        <v>3.8004795149386736</v>
       </c>
       <c r="K84" s="12">
         <f>IF(MAX(J$1:J84)=J84,0,1-J84/MAX(J$1:J84))</f>
-        <v>3.3557487732841396E-2</v>
+        <v>3.3557487732841285E-2</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4251,15 +5415,15 @@
       </c>
       <c r="I85" s="10">
         <f t="shared" si="4"/>
-        <v>-10.144707380254658</v>
+        <v>-0.10144707380254644</v>
       </c>
       <c r="J85" s="11">
         <f t="shared" si="5"/>
-        <v>369.9032441136132</v>
+        <v>3.6990324411361271</v>
       </c>
       <c r="K85" s="12">
         <f>IF(MAX(J$1:J85)=J85,0,1-J85/MAX(J$1:J85))</f>
-        <v>5.9354959994566525E-2</v>
+        <v>5.9354959994566414E-2</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4289,15 +5453,15 @@
       </c>
       <c r="I86" s="10">
         <f t="shared" si="4"/>
-        <v>8.8282402901509336</v>
+        <v>8.828240290150921E-2</v>
       </c>
       <c r="J86" s="11">
         <f t="shared" si="5"/>
-        <v>378.73148440376411</v>
+        <v>3.7873148440376361</v>
       </c>
       <c r="K86" s="12">
         <f>IF(MAX(J$1:J86)=J86,0,1-J86/MAX(J$1:J86))</f>
-        <v>3.6905196244032878E-2</v>
+        <v>3.6905196244032767E-2</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4327,11 +5491,11 @@
       </c>
       <c r="I87" s="10">
         <f t="shared" si="4"/>
-        <v>22.206746371531882</v>
+        <v>0.22206746371531852</v>
       </c>
       <c r="J87" s="11">
         <f t="shared" si="5"/>
-        <v>400.93823077529601</v>
+        <v>4.0093823077529542</v>
       </c>
       <c r="K87" s="12">
         <f>IF(MAX(J$1:J87)=J87,0,1-J87/MAX(J$1:J87))</f>
@@ -4365,11 +5529,11 @@
       </c>
       <c r="I88" s="10">
         <f t="shared" si="4"/>
-        <v>-17.326693990099805</v>
+        <v>-0.17326693990099779</v>
       </c>
       <c r="J88" s="11">
         <f t="shared" si="5"/>
-        <v>383.61153678519622</v>
+        <v>3.8361153678519564</v>
       </c>
       <c r="K88" s="12">
         <f>IF(MAX(J$1:J88)=J88,0,1-J88/MAX(J$1:J88))</f>
@@ -4403,11 +5567,11 @@
       </c>
       <c r="I89" s="10">
         <f t="shared" si="4"/>
-        <v>-10.319533951058563</v>
+        <v>-0.10319533951058549</v>
       </c>
       <c r="J89" s="11">
         <f t="shared" si="5"/>
-        <v>373.29200283413763</v>
+        <v>3.732920028341371</v>
       </c>
       <c r="K89" s="12">
         <f>IF(MAX(J$1:J89)=J89,0,1-J89/MAX(J$1:J89))</f>
@@ -4441,11 +5605,11 @@
       </c>
       <c r="I90" s="10">
         <f t="shared" si="4"/>
-        <v>3.4322557175786481</v>
+        <v>3.4322557175786431E-2</v>
       </c>
       <c r="J90" s="11">
         <f t="shared" si="5"/>
-        <v>376.72425855171628</v>
+        <v>3.7672425855171574</v>
       </c>
       <c r="K90" s="12">
         <f>IF(MAX(J$1:J90)=J90,0,1-J90/MAX(J$1:J90))</f>
@@ -4479,15 +5643,15 @@
       </c>
       <c r="I91" s="10">
         <f t="shared" si="4"/>
-        <v>-7.201890392129358</v>
+        <v>-7.2018903921293481E-2</v>
       </c>
       <c r="J91" s="11">
         <f t="shared" si="5"/>
-        <v>369.5223681595869</v>
+        <v>3.6952236815958641</v>
       </c>
       <c r="K91" s="12">
         <f>IF(MAX(J$1:J91)=J91,0,1-J91/MAX(J$1:J91))</f>
-        <v>7.8355866825072007E-2</v>
+        <v>7.8355866825071896E-2</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4517,11 +5681,11 @@
       </c>
       <c r="I92" s="10">
         <f t="shared" si="4"/>
-        <v>1.9468359870961467</v>
+        <v>1.9468359870961439E-2</v>
       </c>
       <c r="J92" s="11">
         <f t="shared" si="5"/>
-        <v>371.46920414668307</v>
+        <v>3.7146920414668254</v>
       </c>
       <c r="K92" s="12">
         <f>IF(MAX(J$1:J92)=J92,0,1-J92/MAX(J$1:J92))</f>
@@ -4555,11 +5719,11 @@
       </c>
       <c r="I93" s="10">
         <f t="shared" si="4"/>
-        <v>23.262783429104719</v>
+        <v>0.23262783429104683</v>
       </c>
       <c r="J93" s="11">
         <f t="shared" si="5"/>
-        <v>394.7319875757878</v>
+        <v>3.9473198757578722</v>
       </c>
       <c r="K93" s="12">
         <f>IF(MAX(J$1:J93)=J93,0,1-J93/MAX(J$1:J93))</f>
@@ -4593,15 +5757,15 @@
       </c>
       <c r="I94" s="10">
         <f t="shared" si="4"/>
-        <v>-1.1138823537804885</v>
+        <v>-1.1138823537804867E-2</v>
       </c>
       <c r="J94" s="11">
         <f t="shared" si="5"/>
-        <v>393.61810522200733</v>
+        <v>3.9361810522200673</v>
       </c>
       <c r="K94" s="12">
         <f>IF(MAX(J$1:J94)=J94,0,1-J94/MAX(J$1:J94))</f>
-        <v>1.8257489536813942E-2</v>
+        <v>1.8257489536814053E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4631,11 +5795,11 @@
       </c>
       <c r="I95" s="10">
         <f t="shared" si="4"/>
-        <v>9.8078728599809573</v>
+        <v>9.8078728599809428E-2</v>
       </c>
       <c r="J95" s="11">
         <f t="shared" si="5"/>
-        <v>403.42597808198826</v>
+        <v>4.0342597808198768</v>
       </c>
       <c r="K95" s="12">
         <f>IF(MAX(J$1:J95)=J95,0,1-J95/MAX(J$1:J95))</f>
@@ -4669,11 +5833,11 @@
       </c>
       <c r="I96" s="10">
         <f t="shared" si="4"/>
-        <v>21.415726847390015</v>
+        <v>0.21415726847389985</v>
       </c>
       <c r="J96" s="11">
         <f t="shared" si="5"/>
-        <v>424.8417049293783</v>
+        <v>4.2484170492937769</v>
       </c>
       <c r="K96" s="12">
         <f>IF(MAX(J$1:J96)=J96,0,1-J96/MAX(J$1:J96))</f>
@@ -4707,11 +5871,11 @@
       </c>
       <c r="I97" s="10">
         <f t="shared" si="4"/>
-        <v>57.14673225516546</v>
+        <v>0.57146732255165378</v>
       </c>
       <c r="J97" s="11">
         <f t="shared" si="5"/>
-        <v>481.98843718454373</v>
+        <v>4.8198843718454309</v>
       </c>
       <c r="K97" s="12">
         <f>IF(MAX(J$1:J97)=J97,0,1-J97/MAX(J$1:J97))</f>
@@ -4745,11 +5909,11 @@
       </c>
       <c r="I98" s="10">
         <f t="shared" si="4"/>
-        <v>-3.107895182156541</v>
+        <v>-3.1078951821565368E-2</v>
       </c>
       <c r="J98" s="11">
         <f t="shared" si="5"/>
-        <v>478.88054200238719</v>
+        <v>4.7888054200238654</v>
       </c>
       <c r="K98" s="12">
         <f>IF(MAX(J$1:J98)=J98,0,1-J98/MAX(J$1:J98))</f>
@@ -4783,11 +5947,11 @@
       </c>
       <c r="I99" s="10">
         <f t="shared" si="4"/>
-        <v>2.8671583698821124</v>
+        <v>2.8671583698821085E-2</v>
       </c>
       <c r="J99" s="11">
         <f t="shared" si="5"/>
-        <v>481.74770037226932</v>
+        <v>4.8174770037226864</v>
       </c>
       <c r="K99" s="12">
         <f>IF(MAX(J$1:J99)=J99,0,1-J99/MAX(J$1:J99))</f>
@@ -4821,15 +5985,15 @@
       </c>
       <c r="I100" s="10">
         <f t="shared" si="4"/>
-        <v>-4.9385739231652703</v>
+        <v>-4.9385739231652633E-2</v>
       </c>
       <c r="J100" s="11">
         <f t="shared" si="5"/>
-        <v>476.80912644910404</v>
+        <v>4.7680912644910336</v>
       </c>
       <c r="K100" s="12">
         <f>IF(MAX(J$1:J100)=J100,0,1-J100/MAX(J$1:J100))</f>
-        <v>1.0745715738937234E-2</v>
+        <v>1.0745715738937345E-2</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4859,15 +6023,15 @@
       </c>
       <c r="I101" s="10">
         <f t="shared" si="4"/>
-        <v>3.8032632290300135</v>
+        <v>3.8032632290300079E-2</v>
       </c>
       <c r="J101" s="11">
         <f t="shared" si="5"/>
-        <v>480.61238967813404</v>
+        <v>4.806123896781334</v>
       </c>
       <c r="K101" s="12">
         <f>IF(MAX(J$1:J101)=J101,0,1-J101/MAX(J$1:J101))</f>
-        <v>2.8549388330716408E-3</v>
+        <v>2.8549388330717518E-3</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4897,11 +6061,11 @@
       </c>
       <c r="I102" s="10">
         <f t="shared" si="4"/>
-        <v>31.113365821602191</v>
+        <v>0.31113365821602151</v>
       </c>
       <c r="J102" s="11">
         <f t="shared" si="5"/>
-        <v>511.72575549973624</v>
+        <v>5.1172575549973551</v>
       </c>
       <c r="K102" s="12">
         <f>IF(MAX(J$1:J102)=J102,0,1-J102/MAX(J$1:J102))</f>
@@ -4935,11 +6099,11 @@
       </c>
       <c r="I103" s="10">
         <f t="shared" si="4"/>
-        <v>5.5901535601697789</v>
+        <v>5.5901535601697708E-2</v>
       </c>
       <c r="J103" s="11">
         <f t="shared" si="5"/>
-        <v>517.31590905990606</v>
+        <v>5.1731590905990528</v>
       </c>
       <c r="K103" s="12">
         <f>IF(MAX(J$1:J103)=J103,0,1-J103/MAX(J$1:J103))</f>
@@ -4973,11 +6137,11 @@
       </c>
       <c r="I104" s="10">
         <f t="shared" si="4"/>
-        <v>11.604947787940873</v>
+        <v>0.11604947787940856</v>
       </c>
       <c r="J104" s="11">
         <f t="shared" si="5"/>
-        <v>528.92085684784695</v>
+        <v>5.2892085684784611</v>
       </c>
       <c r="K104" s="12">
         <f>IF(MAX(J$1:J104)=J104,0,1-J104/MAX(J$1:J104))</f>
@@ -5011,11 +6175,11 @@
       </c>
       <c r="I105" s="10">
         <f t="shared" si="4"/>
-        <v>30.581389404822968</v>
+        <v>0.30581389404822917</v>
       </c>
       <c r="J105" s="11">
         <f t="shared" si="5"/>
-        <v>559.50224625266992</v>
+        <v>5.59502246252669</v>
       </c>
       <c r="K105" s="12">
         <f>IF(MAX(J$1:J105)=J105,0,1-J105/MAX(J$1:J105))</f>
@@ -5049,11 +6213,11 @@
       </c>
       <c r="I106" s="10">
         <f t="shared" si="4"/>
-        <v>-2.671030153475471</v>
+        <v>-2.6710301534754666E-2</v>
       </c>
       <c r="J106" s="11">
         <f t="shared" si="5"/>
-        <v>556.83121609919442</v>
+        <v>5.568312160991935</v>
       </c>
       <c r="K106" s="12">
         <f>IF(MAX(J$1:J106)=J106,0,1-J106/MAX(J$1:J106))</f>
@@ -5131,5 +6295,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>